--- a/downloads/OOH-Duty-example-Hours_only.xlsx
+++ b/downloads/OOH-Duty-example-Hours_only.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Borislav\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A130C1-99AE-457F-A398-AC5C1D657739}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FAC3ED4-8D72-4752-BEA5-6E4866E5EB1A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6336" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="January" sheetId="1" r:id="rId1"/>
     <sheet name="February" sheetId="2" r:id="rId2"/>
+    <sheet name="March" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="42">
   <si>
     <t>Engineer Name</t>
   </si>
@@ -143,6 +144,21 @@
   <si>
     <t>Dev 1 - Borko - borislav.dechev@fourth.com</t>
   </si>
+  <si>
+    <t>Gospodin vacation - 5.02-8.02</t>
+  </si>
+  <si>
+    <t>Dev 2 - Stefan - stefan.govedarski@fourth.com</t>
+  </si>
+  <si>
+    <t>Dev 3 - Dido - gospodin.gochev@fourth.com</t>
+  </si>
+  <si>
+    <t>Dev 4 - Marto - martin.abrashev@fourth.com</t>
+  </si>
+  <si>
+    <t>Dev 5 - Nevena - nevena.uzunova@fourth.com</t>
+  </si>
 </sst>
 </file>
 
@@ -153,7 +169,7 @@
     <numFmt numFmtId="165" formatCode="d/m/yyyy\ &quot;г.&quot;;@"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,6 +217,24 @@
     <font>
       <b/>
       <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri Light"/>
       <family val="2"/>
@@ -328,7 +362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -407,6 +441,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -724,27 +760,27 @@
   <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6.42578125" customWidth="1"/>
-    <col min="9" max="9" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" customWidth="1"/>
-    <col min="12" max="12" width="18.42578125" customWidth="1"/>
-    <col min="13" max="13" width="17.85546875" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" customWidth="1"/>
-    <col min="15" max="15" width="22.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.44140625" customWidth="1"/>
+    <col min="9" max="9" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.44140625" customWidth="1"/>
+    <col min="12" max="12" width="18.44140625" customWidth="1"/>
+    <col min="13" max="13" width="17.77734375" customWidth="1"/>
+    <col min="14" max="14" width="17.5546875" customWidth="1"/>
+    <col min="15" max="15" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -787,7 +823,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>13</v>
       </c>
@@ -822,7 +858,7 @@
       <c r="N2" s="12"/>
       <c r="O2" s="12"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>14</v>
       </c>
@@ -855,7 +891,7 @@
       <c r="N3" s="12"/>
       <c r="O3" s="12"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>19</v>
       </c>
@@ -886,7 +922,7 @@
       <c r="N4" s="12"/>
       <c r="O4" s="12"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>16</v>
       </c>
@@ -933,7 +969,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
         <v>16</v>
       </c>
@@ -981,7 +1017,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>19</v>
       </c>
@@ -1029,7 +1065,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>13</v>
       </c>
@@ -1077,7 +1113,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>15</v>
       </c>
@@ -1125,7 +1161,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>16</v>
       </c>
@@ -1159,7 +1195,7 @@
       <c r="N10" s="12"/>
       <c r="O10" s="12"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
         <v>15</v>
       </c>
@@ -1193,7 +1229,7 @@
       <c r="N11" s="12"/>
       <c r="O11" s="12"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
         <v>19</v>
       </c>
@@ -1227,7 +1263,7 @@
       <c r="N12" s="12"/>
       <c r="O12" s="12"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
         <v>19</v>
       </c>
@@ -1261,7 +1297,7 @@
       <c r="N13" s="12"/>
       <c r="O13" s="12"/>
     </row>
-    <row r="14" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>15</v>
       </c>
@@ -1293,7 +1329,7 @@
       <c r="N14" s="12"/>
       <c r="O14" s="12"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
         <v>16</v>
       </c>
@@ -1325,7 +1361,7 @@
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>15</v>
       </c>
@@ -1357,7 +1393,7 @@
       <c r="N16" s="12"/>
       <c r="O16" s="12"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="29" t="s">
         <v>19</v>
       </c>
@@ -1389,7 +1425,7 @@
       <c r="N17" s="12"/>
       <c r="O17" s="12"/>
     </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="29" t="s">
         <v>15</v>
       </c>
@@ -1421,7 +1457,7 @@
       <c r="N18" s="12"/>
       <c r="O18" s="12"/>
     </row>
-    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
         <v>13</v>
       </c>
@@ -1453,7 +1489,7 @@
       <c r="N19" s="12"/>
       <c r="O19" s="12"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">
         <v>13</v>
       </c>
@@ -1485,7 +1521,7 @@
       <c r="N20" s="12"/>
       <c r="O20" s="12"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
         <v>14</v>
       </c>
@@ -1517,7 +1553,7 @@
       <c r="N21" s="12"/>
       <c r="O21" s="12"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
         <v>15</v>
       </c>
@@ -1549,7 +1585,7 @@
       <c r="N22" s="12"/>
       <c r="O22" s="12"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="29" t="s">
         <v>14</v>
       </c>
@@ -1581,7 +1617,7 @@
       <c r="N23" s="12"/>
       <c r="O23" s="12"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="29" t="s">
         <v>16</v>
       </c>
@@ -1613,7 +1649,7 @@
       <c r="N24" s="12"/>
       <c r="O24" s="12"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="29" t="s">
         <v>15</v>
       </c>
@@ -1645,7 +1681,7 @@
       <c r="N25" s="12"/>
       <c r="O25" s="12"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
         <v>14</v>
       </c>
@@ -1677,7 +1713,7 @@
       <c r="N26" s="12"/>
       <c r="O26" s="12"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
         <v>14</v>
       </c>
@@ -1709,7 +1745,7 @@
       <c r="N27" s="12"/>
       <c r="O27" s="12"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="29" t="s">
         <v>15</v>
       </c>
@@ -1741,7 +1777,7 @@
       <c r="N28" s="12"/>
       <c r="O28" s="12"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="29" t="s">
         <v>13</v>
       </c>
@@ -1773,7 +1809,7 @@
       <c r="N29" s="12"/>
       <c r="O29" s="12"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="29" t="s">
         <v>19</v>
       </c>
@@ -1805,7 +1841,7 @@
       <c r="N30" s="12"/>
       <c r="O30" s="12"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="29" t="s">
         <v>16</v>
       </c>
@@ -1837,7 +1873,7 @@
       <c r="N31" s="12"/>
       <c r="O31" s="12"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="I32" s="12"/>
       <c r="J32" s="12"/>
       <c r="K32" s="12"/>
@@ -1846,7 +1882,7 @@
       <c r="N32" s="12"/>
       <c r="O32" s="12"/>
     </row>
-    <row r="33" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I33" s="12"/>
       <c r="J33" s="12"/>
       <c r="K33" s="12"/>
@@ -1855,7 +1891,7 @@
       <c r="N33" s="12"/>
       <c r="O33" s="12"/>
     </row>
-    <row r="34" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I34" s="12"/>
       <c r="J34" s="12"/>
       <c r="K34" s="12"/>
@@ -1864,7 +1900,7 @@
       <c r="N34" s="12"/>
       <c r="O34" s="12"/>
     </row>
-    <row r="35" spans="9:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="9:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I35" s="12"/>
       <c r="J35" s="12"/>
       <c r="K35" s="12"/>
@@ -1873,7 +1909,7 @@
       <c r="N35" s="12"/>
       <c r="O35" s="12"/>
     </row>
-    <row r="36" spans="9:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="9:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I36" s="12"/>
       <c r="J36" s="12"/>
       <c r="K36" s="12"/>
@@ -1882,7 +1918,7 @@
       <c r="N36" s="12"/>
       <c r="O36" s="12"/>
     </row>
-    <row r="37" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I37" s="12"/>
       <c r="J37" s="12"/>
       <c r="K37" s="12"/>
@@ -1891,7 +1927,7 @@
       <c r="N37" s="12"/>
       <c r="O37" s="12"/>
     </row>
-    <row r="38" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I38" s="12"/>
       <c r="J38" s="12"/>
       <c r="K38" s="12"/>
@@ -1900,7 +1936,7 @@
       <c r="N38" s="12"/>
       <c r="O38" s="12"/>
     </row>
-    <row r="39" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I39" s="12"/>
       <c r="J39" s="12"/>
       <c r="K39" s="12"/>
@@ -1909,7 +1945,7 @@
       <c r="N39" s="12"/>
       <c r="O39" s="12"/>
     </row>
-    <row r="40" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I40" s="12"/>
       <c r="J40" s="12"/>
       <c r="K40" s="12"/>
@@ -1918,7 +1954,7 @@
       <c r="N40" s="12"/>
       <c r="O40" s="12"/>
     </row>
-    <row r="41" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I41" s="12"/>
       <c r="J41" s="12"/>
       <c r="K41" s="12"/>
@@ -1927,7 +1963,7 @@
       <c r="N41" s="12"/>
       <c r="O41" s="12"/>
     </row>
-    <row r="42" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I42" s="12"/>
       <c r="J42" s="12"/>
       <c r="K42" s="12"/>
@@ -1936,7 +1972,7 @@
       <c r="N42" s="12"/>
       <c r="O42" s="12"/>
     </row>
-    <row r="43" spans="9:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="9:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I43" s="12"/>
       <c r="J43" s="12"/>
       <c r="K43" s="12"/>
@@ -1945,7 +1981,7 @@
       <c r="N43" s="12"/>
       <c r="O43" s="12"/>
     </row>
-    <row r="44" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I44" s="12"/>
       <c r="J44" s="12"/>
       <c r="K44" s="12"/>
@@ -1954,7 +1990,7 @@
       <c r="N44" s="12"/>
       <c r="O44" s="12"/>
     </row>
-    <row r="45" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I45" s="12"/>
       <c r="J45" s="12"/>
       <c r="K45" s="12"/>
@@ -1963,7 +1999,7 @@
       <c r="N45" s="12"/>
       <c r="O45" s="12"/>
     </row>
-    <row r="46" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I46" s="18"/>
       <c r="J46" s="18"/>
       <c r="K46" s="18"/>
@@ -1972,7 +2008,7 @@
       <c r="N46" s="18"/>
       <c r="O46" s="18"/>
     </row>
-    <row r="47" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I47" s="18"/>
       <c r="J47" s="18"/>
       <c r="K47" s="18"/>
@@ -1981,7 +2017,7 @@
       <c r="N47" s="18"/>
       <c r="O47" s="18"/>
     </row>
-    <row r="48" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I48" s="18"/>
       <c r="J48" s="18"/>
       <c r="K48" s="18"/>
@@ -1990,7 +2026,7 @@
       <c r="N48" s="18"/>
       <c r="O48" s="18"/>
     </row>
-    <row r="49" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I49" s="18"/>
       <c r="J49" s="18"/>
       <c r="K49" s="18"/>
@@ -2009,29 +2045,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6.42578125" customWidth="1"/>
-    <col min="9" max="9" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" customWidth="1"/>
-    <col min="12" max="12" width="18.42578125" customWidth="1"/>
-    <col min="13" max="13" width="17.85546875" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" customWidth="1"/>
-    <col min="15" max="15" width="22.5703125" customWidth="1"/>
-    <col min="16" max="16" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.44140625" customWidth="1"/>
+    <col min="9" max="9" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.44140625" customWidth="1"/>
+    <col min="12" max="12" width="18.44140625" customWidth="1"/>
+    <col min="13" max="13" width="17.77734375" customWidth="1"/>
+    <col min="14" max="14" width="17.5546875" customWidth="1"/>
+    <col min="15" max="15" width="22.5546875" customWidth="1"/>
+    <col min="16" max="16" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="51" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2081,7 +2117,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>15</v>
       </c>
@@ -2131,7 +2167,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>16</v>
       </c>
@@ -2181,7 +2217,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>16</v>
       </c>
@@ -2232,7 +2268,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>19</v>
       </c>
@@ -2283,7 +2319,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>15</v>
       </c>
@@ -2334,7 +2370,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>13</v>
       </c>
@@ -2359,7 +2395,7 @@
       <c r="G7" s="30"/>
       <c r="H7" s="31"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>15</v>
       </c>
@@ -2384,7 +2420,7 @@
       <c r="G8" s="29"/>
       <c r="H8" s="32"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>16</v>
       </c>
@@ -2409,7 +2445,7 @@
       <c r="G9" s="29"/>
       <c r="H9" s="32"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
         <v>13</v>
       </c>
@@ -2440,7 +2476,7 @@
       <c r="N10" s="12"/>
       <c r="O10" s="12"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>13</v>
       </c>
@@ -2471,7 +2507,7 @@
       <c r="N11" s="12"/>
       <c r="O11" s="12"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
         <v>14</v>
       </c>
@@ -2502,7 +2538,7 @@
       <c r="N12" s="12"/>
       <c r="O12" s="12"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>13</v>
       </c>
@@ -2533,7 +2569,7 @@
       <c r="N13" s="12"/>
       <c r="O13" s="12"/>
     </row>
-    <row r="14" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>14</v>
       </c>
@@ -2564,7 +2600,7 @@
       <c r="N14" s="12"/>
       <c r="O14" s="12"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
         <v>19</v>
       </c>
@@ -2596,7 +2632,7 @@
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>15</v>
       </c>
@@ -2628,7 +2664,7 @@
       <c r="N16" s="12"/>
       <c r="O16" s="12"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
         <v>14</v>
       </c>
@@ -2660,7 +2696,7 @@
       <c r="N17" s="12"/>
       <c r="O17" s="12"/>
     </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
         <v>14</v>
       </c>
@@ -2692,7 +2728,7 @@
       <c r="N18" s="12"/>
       <c r="O18" s="12"/>
     </row>
-    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
         <v>15</v>
       </c>
@@ -2724,9 +2760,9 @@
       <c r="N19" s="12"/>
       <c r="O19" s="12"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B20" s="6">
         <f t="shared" si="1"/>
@@ -2756,7 +2792,7 @@
       <c r="N20" s="12"/>
       <c r="O20" s="12"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
         <v>16</v>
       </c>
@@ -2788,9 +2824,9 @@
       <c r="N21" s="12"/>
       <c r="O21" s="12"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22" s="6">
         <f t="shared" si="1"/>
@@ -2820,7 +2856,7 @@
       <c r="N22" s="12"/>
       <c r="O22" s="12"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="29" t="s">
         <v>15</v>
       </c>
@@ -2852,7 +2888,7 @@
       <c r="N23" s="12"/>
       <c r="O23" s="12"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
         <v>19</v>
       </c>
@@ -2884,7 +2920,7 @@
       <c r="N24" s="12"/>
       <c r="O24" s="12"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
         <v>19</v>
       </c>
@@ -2916,7 +2952,7 @@
       <c r="N25" s="12"/>
       <c r="O25" s="12"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="29" t="s">
         <v>16</v>
       </c>
@@ -2948,7 +2984,7 @@
       <c r="N26" s="12"/>
       <c r="O26" s="12"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="29" t="s">
         <v>13</v>
       </c>
@@ -2980,7 +3016,7 @@
       <c r="N27" s="12"/>
       <c r="O27" s="12"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="29" t="s">
         <v>19</v>
       </c>
@@ -3012,7 +3048,7 @@
       <c r="N28" s="12"/>
       <c r="O28" s="12"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="29" t="s">
         <v>15</v>
       </c>
@@ -3044,7 +3080,7 @@
       <c r="N29" s="12"/>
       <c r="O29" s="12"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="I30" s="12"/>
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
@@ -3053,7 +3089,7 @@
       <c r="N30" s="12"/>
       <c r="O30" s="12"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="I31" s="12"/>
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
@@ -3062,7 +3098,7 @@
       <c r="N31" s="12"/>
       <c r="O31" s="12"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="I32" s="12"/>
       <c r="J32" s="12"/>
       <c r="K32" s="12"/>
@@ -3071,7 +3107,7 @@
       <c r="N32" s="12"/>
       <c r="O32" s="12"/>
     </row>
-    <row r="33" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I33" s="12"/>
       <c r="J33" s="12"/>
       <c r="K33" s="12"/>
@@ -3080,7 +3116,7 @@
       <c r="N33" s="12"/>
       <c r="O33" s="12"/>
     </row>
-    <row r="34" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I34" s="12"/>
       <c r="J34" s="12"/>
       <c r="K34" s="12"/>
@@ -3089,7 +3125,7 @@
       <c r="N34" s="12"/>
       <c r="O34" s="12"/>
     </row>
-    <row r="35" spans="9:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="9:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I35" s="12"/>
       <c r="J35" s="12"/>
       <c r="K35" s="12"/>
@@ -3098,7 +3134,7 @@
       <c r="N35" s="12"/>
       <c r="O35" s="12"/>
     </row>
-    <row r="36" spans="9:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="9:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I36" s="12"/>
       <c r="J36" s="12"/>
       <c r="K36" s="12"/>
@@ -3107,7 +3143,7 @@
       <c r="N36" s="12"/>
       <c r="O36" s="12"/>
     </row>
-    <row r="37" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I37" s="12"/>
       <c r="J37" s="12"/>
       <c r="K37" s="12"/>
@@ -3116,7 +3152,7 @@
       <c r="N37" s="12"/>
       <c r="O37" s="12"/>
     </row>
-    <row r="38" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I38" s="12"/>
       <c r="J38" s="12"/>
       <c r="K38" s="12"/>
@@ -3125,7 +3161,7 @@
       <c r="N38" s="12"/>
       <c r="O38" s="12"/>
     </row>
-    <row r="39" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I39" s="12"/>
       <c r="J39" s="12"/>
       <c r="K39" s="12"/>
@@ -3134,7 +3170,7 @@
       <c r="N39" s="12"/>
       <c r="O39" s="12"/>
     </row>
-    <row r="40" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I40" s="12"/>
       <c r="J40" s="12"/>
       <c r="K40" s="12"/>
@@ -3143,7 +3179,7 @@
       <c r="N40" s="12"/>
       <c r="O40" s="12"/>
     </row>
-    <row r="41" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I41" s="12"/>
       <c r="J41" s="12"/>
       <c r="K41" s="12"/>
@@ -3152,7 +3188,7 @@
       <c r="N41" s="12"/>
       <c r="O41" s="12"/>
     </row>
-    <row r="42" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I42" s="12"/>
       <c r="J42" s="12"/>
       <c r="K42" s="12"/>
@@ -3161,7 +3197,7 @@
       <c r="N42" s="12"/>
       <c r="O42" s="12"/>
     </row>
-    <row r="43" spans="9:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="9:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I43" s="12"/>
       <c r="J43" s="12"/>
       <c r="K43" s="12"/>
@@ -3170,7 +3206,7 @@
       <c r="N43" s="12"/>
       <c r="O43" s="12"/>
     </row>
-    <row r="44" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I44" s="12"/>
       <c r="J44" s="12"/>
       <c r="K44" s="12"/>
@@ -3179,7 +3215,7 @@
       <c r="N44" s="12"/>
       <c r="O44" s="12"/>
     </row>
-    <row r="45" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I45" s="12"/>
       <c r="J45" s="12"/>
       <c r="K45" s="12"/>
@@ -3188,7 +3224,7 @@
       <c r="N45" s="12"/>
       <c r="O45" s="12"/>
     </row>
-    <row r="46" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I46" s="18"/>
       <c r="J46" s="18"/>
       <c r="K46" s="18"/>
@@ -3197,7 +3233,7 @@
       <c r="N46" s="18"/>
       <c r="O46" s="18"/>
     </row>
-    <row r="47" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I47" s="18"/>
       <c r="J47" s="18"/>
       <c r="K47" s="18"/>
@@ -3206,7 +3242,7 @@
       <c r="N47" s="18"/>
       <c r="O47" s="18"/>
     </row>
-    <row r="48" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I48" s="18"/>
       <c r="J48" s="18"/>
       <c r="K48" s="18"/>
@@ -3215,7 +3251,7 @@
       <c r="N48" s="18"/>
       <c r="O48" s="18"/>
     </row>
-    <row r="49" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I49" s="18"/>
       <c r="J49" s="18"/>
       <c r="K49" s="18"/>
@@ -3228,4 +3264,1293 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:P49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.44140625" customWidth="1"/>
+    <col min="9" max="9" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.21875" customWidth="1"/>
+    <col min="12" max="12" width="17.44140625" customWidth="1"/>
+    <col min="13" max="13" width="18.44140625" customWidth="1"/>
+    <col min="14" max="14" width="17.77734375" customWidth="1"/>
+    <col min="15" max="15" width="17.5546875" customWidth="1"/>
+    <col min="16" max="16" width="22.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="51" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="6">
+        <v>43525</v>
+      </c>
+      <c r="C2" s="7">
+        <f t="shared" ref="C2:C29" si="0">IF(WEEKDAY(B2,2) &lt;= 5,B2,IF(WEEKDAY(B2+1, 2) &gt; 5, (B2 + 2), B2+1))</f>
+        <v>43525</v>
+      </c>
+      <c r="D2" s="8" t="str">
+        <f>TEXT(B2,"dddd")&amp;" 18:00"&amp;" - "&amp;TEXT(C2,"dddd")&amp;" 22:00"</f>
+        <v>Friday 18:00 - Friday 22:00</v>
+      </c>
+      <c r="E2" s="9">
+        <v>4</v>
+      </c>
+      <c r="F2" s="19">
+        <v>11</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="36">
+        <f>SUMIF(A$2:A$32,"Dev 1",E$2:E$32)</f>
+        <v>38</v>
+      </c>
+      <c r="K2" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="12" t="str">
+        <f>IF(SUMIF(A$2:A$28,"Dev 1",E$2:E$28)&lt;=100,"ok","not ok")</f>
+        <v>ok</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="21">
+        <v>43526</v>
+      </c>
+      <c r="C3" s="21">
+        <f>B3</f>
+        <v>43526</v>
+      </c>
+      <c r="D3" s="23" t="str">
+        <f>TEXT(B3,"dddd")&amp;" 9:00"&amp;" - "&amp;TEXT(C3,"dddd")&amp;" 18:00"</f>
+        <v>Saturday 9:00 - Saturday 18:00</v>
+      </c>
+      <c r="E3" s="24">
+        <v>9</v>
+      </c>
+      <c r="F3" s="25">
+        <v>15</v>
+      </c>
+      <c r="G3" s="26"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="36">
+        <f>SUMIF(A$2:A$32,"Dev 2",E$2:E$32)</f>
+        <v>39</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="12" t="str">
+        <f>IF(SUMIF(A$2:A$28,"Dev 2",E$2:E$28)&lt;=100,"ok","not ok")</f>
+        <v>ok</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="21">
+        <f t="shared" ref="B4:B29" si="1">C3+1</f>
+        <v>43527</v>
+      </c>
+      <c r="C4" s="22">
+        <f>B4</f>
+        <v>43527</v>
+      </c>
+      <c r="D4" s="23" t="str">
+        <f>TEXT(B4,"dddd")&amp;" 9:00"&amp;" - "&amp;TEXT(C4,"dddd")&amp;" 18:00"</f>
+        <v>Sunday 9:00 - Sunday 18:00</v>
+      </c>
+      <c r="E4" s="24">
+        <v>9</v>
+      </c>
+      <c r="F4" s="25">
+        <v>15</v>
+      </c>
+      <c r="G4" s="26"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="36">
+        <f>SUMIF(A$2:A$32,"Dev 3",E$2:E$32)</f>
+        <v>36</v>
+      </c>
+      <c r="K4" s="35"/>
+      <c r="L4" s="12" t="str">
+        <f>IF(SUMIF(A$2:A$28,"Dev 3",E$2:E$28)&lt;=100,"ok","not ok")</f>
+        <v>ok</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="21">
+        <f t="shared" ref="B5" si="2">C4+1</f>
+        <v>43528</v>
+      </c>
+      <c r="C5" s="22">
+        <f>B5</f>
+        <v>43528</v>
+      </c>
+      <c r="D5" s="23" t="str">
+        <f>TEXT(B5,"dddd")&amp;" 9:00"&amp;" - "&amp;TEXT(C5,"dddd")&amp;" 18:00"</f>
+        <v>Monday 9:00 - Monday 18:00</v>
+      </c>
+      <c r="E5" s="24">
+        <v>9</v>
+      </c>
+      <c r="F5" s="25">
+        <v>15</v>
+      </c>
+      <c r="G5" s="26"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="36">
+        <f>SUMIF(A$2:A$32,"Dev 4",E$2:E$32)</f>
+        <v>36</v>
+      </c>
+      <c r="K5" s="35"/>
+      <c r="L5" s="12" t="str">
+        <f>IF(SUMIF(A$2:A$28,"Dev 4",E$2:E$28)&lt;=100,"ok","not ok")</f>
+        <v>ok</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="6">
+        <f t="shared" si="1"/>
+        <v>43529</v>
+      </c>
+      <c r="C6" s="7">
+        <f t="shared" si="0"/>
+        <v>43529</v>
+      </c>
+      <c r="D6" s="8" t="str">
+        <f t="shared" ref="D6:D9" si="3">TEXT(B6,"dddd")&amp;" 18:00"&amp;" - "&amp;TEXT(C6,"dddd")&amp;" 22:00"</f>
+        <v>Tuesday 18:00 - Tuesday 22:00</v>
+      </c>
+      <c r="E6" s="9">
+        <v>4</v>
+      </c>
+      <c r="F6" s="19">
+        <v>11</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="36">
+        <f>SUMIF(A$2:A$32,"Dev 5",E$2:E$32)</f>
+        <v>36</v>
+      </c>
+      <c r="K6" s="35"/>
+      <c r="L6" s="12" t="str">
+        <f>IF(SUMIF(A$2:A$28,"Dev 5",E$2:E$28)&lt;=100,"ok","not ok")</f>
+        <v>ok</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="6">
+        <f t="shared" si="1"/>
+        <v>43530</v>
+      </c>
+      <c r="C7" s="7">
+        <f t="shared" si="0"/>
+        <v>43530</v>
+      </c>
+      <c r="D7" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>Wednesday 18:00 - Wednesday 22:00</v>
+      </c>
+      <c r="E7" s="9">
+        <v>4</v>
+      </c>
+      <c r="F7" s="19">
+        <v>11</v>
+      </c>
+      <c r="G7" s="30"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="37"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="6">
+        <f t="shared" si="1"/>
+        <v>43531</v>
+      </c>
+      <c r="C8" s="7">
+        <f t="shared" si="0"/>
+        <v>43531</v>
+      </c>
+      <c r="D8" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>Thursday 18:00 - Thursday 22:00</v>
+      </c>
+      <c r="E8" s="9">
+        <v>4</v>
+      </c>
+      <c r="F8" s="19">
+        <v>11</v>
+      </c>
+      <c r="G8" s="29"/>
+      <c r="H8" s="32"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="6">
+        <f t="shared" si="1"/>
+        <v>43532</v>
+      </c>
+      <c r="C9" s="7">
+        <f t="shared" si="0"/>
+        <v>43532</v>
+      </c>
+      <c r="D9" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>Friday 18:00 - Friday 22:00</v>
+      </c>
+      <c r="E9" s="9">
+        <v>4</v>
+      </c>
+      <c r="F9" s="19">
+        <v>11</v>
+      </c>
+      <c r="G9" s="29"/>
+      <c r="H9" s="32"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="21">
+        <f t="shared" si="1"/>
+        <v>43533</v>
+      </c>
+      <c r="C10" s="21">
+        <f>B10</f>
+        <v>43533</v>
+      </c>
+      <c r="D10" s="23" t="str">
+        <f t="shared" ref="D10:D11" si="4">TEXT(B10,"dddd")&amp;" 9:00"&amp;" - "&amp;TEXT(C10,"dddd")&amp;" 18:00"</f>
+        <v>Saturday 9:00 - Saturday 18:00</v>
+      </c>
+      <c r="E10" s="24">
+        <v>9</v>
+      </c>
+      <c r="F10" s="25">
+        <v>15</v>
+      </c>
+      <c r="G10" s="20"/>
+      <c r="H10" s="28"/>
+      <c r="J10" s="12"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="21">
+        <f t="shared" si="1"/>
+        <v>43534</v>
+      </c>
+      <c r="C11" s="22">
+        <f>B11</f>
+        <v>43534</v>
+      </c>
+      <c r="D11" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>Sunday 9:00 - Sunday 18:00</v>
+      </c>
+      <c r="E11" s="24">
+        <v>9</v>
+      </c>
+      <c r="F11" s="25">
+        <v>15</v>
+      </c>
+      <c r="G11" s="20"/>
+      <c r="H11" s="28"/>
+      <c r="J11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="6">
+        <f t="shared" si="1"/>
+        <v>43535</v>
+      </c>
+      <c r="C12" s="7">
+        <f t="shared" si="0"/>
+        <v>43535</v>
+      </c>
+      <c r="D12" s="8" t="str">
+        <f>TEXT(B12,"dddd")&amp;" 18:00"&amp;" - "&amp;TEXT(C12,"dddd")&amp;" 00:00"</f>
+        <v>Monday 18:00 - Monday 00:00</v>
+      </c>
+      <c r="E12" s="9">
+        <v>6</v>
+      </c>
+      <c r="F12" s="19">
+        <v>9</v>
+      </c>
+      <c r="G12" s="29"/>
+      <c r="H12" s="32"/>
+      <c r="J12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="6">
+        <f t="shared" si="1"/>
+        <v>43536</v>
+      </c>
+      <c r="C13" s="7">
+        <f t="shared" si="0"/>
+        <v>43536</v>
+      </c>
+      <c r="D13" s="8" t="str">
+        <f t="shared" ref="D13:D16" si="5">TEXT(B13,"dddd")&amp;" 18:00"&amp;" - "&amp;TEXT(C13,"dddd")&amp;" 22:00"</f>
+        <v>Tuesday 18:00 - Tuesday 22:00</v>
+      </c>
+      <c r="E13" s="9">
+        <v>4</v>
+      </c>
+      <c r="F13" s="19">
+        <v>11</v>
+      </c>
+      <c r="G13" s="29"/>
+      <c r="H13" s="32"/>
+      <c r="J13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+    </row>
+    <row r="14" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="6">
+        <f t="shared" si="1"/>
+        <v>43537</v>
+      </c>
+      <c r="C14" s="7">
+        <f t="shared" si="0"/>
+        <v>43537</v>
+      </c>
+      <c r="D14" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>Wednesday 18:00 - Wednesday 22:00</v>
+      </c>
+      <c r="E14" s="9">
+        <v>4</v>
+      </c>
+      <c r="F14" s="19">
+        <v>11</v>
+      </c>
+      <c r="G14" s="29"/>
+      <c r="H14" s="32"/>
+      <c r="J14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="6">
+        <f t="shared" si="1"/>
+        <v>43538</v>
+      </c>
+      <c r="C15" s="7">
+        <f t="shared" si="0"/>
+        <v>43538</v>
+      </c>
+      <c r="D15" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>Thursday 18:00 - Thursday 22:00</v>
+      </c>
+      <c r="E15" s="9">
+        <v>4</v>
+      </c>
+      <c r="F15" s="19">
+        <v>11</v>
+      </c>
+      <c r="G15" s="29"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6">
+        <f t="shared" si="1"/>
+        <v>43539</v>
+      </c>
+      <c r="C16" s="7">
+        <f t="shared" si="0"/>
+        <v>43539</v>
+      </c>
+      <c r="D16" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>Friday 18:00 - Friday 22:00</v>
+      </c>
+      <c r="E16" s="9">
+        <v>4</v>
+      </c>
+      <c r="F16" s="19">
+        <v>11</v>
+      </c>
+      <c r="G16" s="29"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="21">
+        <f t="shared" si="1"/>
+        <v>43540</v>
+      </c>
+      <c r="C17" s="21">
+        <f>B17</f>
+        <v>43540</v>
+      </c>
+      <c r="D17" s="23" t="str">
+        <f t="shared" ref="D17:D18" si="6">TEXT(B17,"dddd")&amp;" 9:00"&amp;" - "&amp;TEXT(C17,"dddd")&amp;" 18:00"</f>
+        <v>Saturday 9:00 - Saturday 18:00</v>
+      </c>
+      <c r="E17" s="24">
+        <v>9</v>
+      </c>
+      <c r="F17" s="25">
+        <v>15</v>
+      </c>
+      <c r="G17" s="20"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+    </row>
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="21">
+        <f t="shared" si="1"/>
+        <v>43541</v>
+      </c>
+      <c r="C18" s="22">
+        <f>B18</f>
+        <v>43541</v>
+      </c>
+      <c r="D18" s="23" t="str">
+        <f t="shared" si="6"/>
+        <v>Sunday 9:00 - Sunday 18:00</v>
+      </c>
+      <c r="E18" s="24">
+        <v>9</v>
+      </c>
+      <c r="F18" s="25">
+        <v>15</v>
+      </c>
+      <c r="G18" s="20"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+    </row>
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="6">
+        <f t="shared" si="1"/>
+        <v>43542</v>
+      </c>
+      <c r="C19" s="7">
+        <f t="shared" si="0"/>
+        <v>43542</v>
+      </c>
+      <c r="D19" s="8" t="str">
+        <f>TEXT(B19,"dddd")&amp;" 18:00"&amp;" - "&amp;TEXT(C19,"dddd")&amp;" 00:00"</f>
+        <v>Monday 18:00 - Monday 00:00</v>
+      </c>
+      <c r="E19" s="9">
+        <v>6</v>
+      </c>
+      <c r="F19" s="19">
+        <v>9</v>
+      </c>
+      <c r="G19" s="29"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="6">
+        <f t="shared" si="1"/>
+        <v>43543</v>
+      </c>
+      <c r="C20" s="7">
+        <f t="shared" si="0"/>
+        <v>43543</v>
+      </c>
+      <c r="D20" s="8" t="str">
+        <f t="shared" ref="D20:D23" si="7">TEXT(B20,"dddd")&amp;" 18:00"&amp;" - "&amp;TEXT(C20,"dddd")&amp;" 22:00"</f>
+        <v>Tuesday 18:00 - Tuesday 22:00</v>
+      </c>
+      <c r="E20" s="9">
+        <v>4</v>
+      </c>
+      <c r="F20" s="19">
+        <v>11</v>
+      </c>
+      <c r="G20" s="29"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="6">
+        <f t="shared" si="1"/>
+        <v>43544</v>
+      </c>
+      <c r="C21" s="7">
+        <f t="shared" si="0"/>
+        <v>43544</v>
+      </c>
+      <c r="D21" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>Wednesday 18:00 - Wednesday 22:00</v>
+      </c>
+      <c r="E21" s="9">
+        <v>4</v>
+      </c>
+      <c r="F21" s="19">
+        <v>11</v>
+      </c>
+      <c r="G21" s="29"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="6">
+        <f t="shared" si="1"/>
+        <v>43545</v>
+      </c>
+      <c r="C22" s="7">
+        <f t="shared" si="0"/>
+        <v>43545</v>
+      </c>
+      <c r="D22" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>Thursday 18:00 - Thursday 22:00</v>
+      </c>
+      <c r="E22" s="9">
+        <v>4</v>
+      </c>
+      <c r="F22" s="19">
+        <v>11</v>
+      </c>
+      <c r="G22" s="29"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="6">
+        <f t="shared" si="1"/>
+        <v>43546</v>
+      </c>
+      <c r="C23" s="7">
+        <f t="shared" si="0"/>
+        <v>43546</v>
+      </c>
+      <c r="D23" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>Friday 18:00 - Friday 22:00</v>
+      </c>
+      <c r="E23" s="9">
+        <v>4</v>
+      </c>
+      <c r="F23" s="19">
+        <v>11</v>
+      </c>
+      <c r="G23" s="29"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="21">
+        <f t="shared" si="1"/>
+        <v>43547</v>
+      </c>
+      <c r="C24" s="21">
+        <f>B24</f>
+        <v>43547</v>
+      </c>
+      <c r="D24" s="23" t="str">
+        <f t="shared" ref="D24:D25" si="8">TEXT(B24,"dddd")&amp;" 9:00"&amp;" - "&amp;TEXT(C24,"dddd")&amp;" 18:00"</f>
+        <v>Saturday 9:00 - Saturday 18:00</v>
+      </c>
+      <c r="E24" s="24">
+        <v>9</v>
+      </c>
+      <c r="F24" s="25">
+        <v>15</v>
+      </c>
+      <c r="G24" s="20"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="21">
+        <f t="shared" si="1"/>
+        <v>43548</v>
+      </c>
+      <c r="C25" s="22">
+        <f>B25</f>
+        <v>43548</v>
+      </c>
+      <c r="D25" s="23" t="str">
+        <f t="shared" si="8"/>
+        <v>Sunday 9:00 - Sunday 18:00</v>
+      </c>
+      <c r="E25" s="24">
+        <v>9</v>
+      </c>
+      <c r="F25" s="25">
+        <v>15</v>
+      </c>
+      <c r="G25" s="20"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="6">
+        <f t="shared" si="1"/>
+        <v>43549</v>
+      </c>
+      <c r="C26" s="7">
+        <f t="shared" si="0"/>
+        <v>43549</v>
+      </c>
+      <c r="D26" s="8" t="str">
+        <f>TEXT(B26,"dddd")&amp;" 18:00"&amp;" - "&amp;TEXT(C26,"dddd")&amp;" 00:00"</f>
+        <v>Monday 18:00 - Monday 00:00</v>
+      </c>
+      <c r="E26" s="9">
+        <v>6</v>
+      </c>
+      <c r="F26" s="19">
+        <v>9</v>
+      </c>
+      <c r="G26" s="29"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="6">
+        <f t="shared" si="1"/>
+        <v>43550</v>
+      </c>
+      <c r="C27" s="7">
+        <f t="shared" si="0"/>
+        <v>43550</v>
+      </c>
+      <c r="D27" s="8" t="str">
+        <f t="shared" ref="D27:D29" si="9">TEXT(B27,"dddd")&amp;" 18:00"&amp;" - "&amp;TEXT(C27,"dddd")&amp;" 22:00"</f>
+        <v>Tuesday 18:00 - Tuesday 22:00</v>
+      </c>
+      <c r="E27" s="9">
+        <v>4</v>
+      </c>
+      <c r="F27" s="19">
+        <v>11</v>
+      </c>
+      <c r="G27" s="29"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="6">
+        <f t="shared" si="1"/>
+        <v>43551</v>
+      </c>
+      <c r="C28" s="7">
+        <f t="shared" si="0"/>
+        <v>43551</v>
+      </c>
+      <c r="D28" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>Wednesday 18:00 - Wednesday 22:00</v>
+      </c>
+      <c r="E28" s="9">
+        <v>4</v>
+      </c>
+      <c r="F28" s="19">
+        <v>11</v>
+      </c>
+      <c r="G28" s="29"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="6">
+        <f t="shared" si="1"/>
+        <v>43552</v>
+      </c>
+      <c r="C29" s="7">
+        <f t="shared" si="0"/>
+        <v>43552</v>
+      </c>
+      <c r="D29" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>Thursday 18:00 - Thursday 22:00</v>
+      </c>
+      <c r="E29" s="9">
+        <v>4</v>
+      </c>
+      <c r="F29" s="19">
+        <v>11</v>
+      </c>
+      <c r="G29" s="33"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="6">
+        <f t="shared" ref="B30:B32" si="10">C29+1</f>
+        <v>43553</v>
+      </c>
+      <c r="C30" s="7">
+        <f t="shared" ref="C30" si="11">IF(WEEKDAY(B30,2) &lt;= 5,B30,IF(WEEKDAY(B30+1, 2) &gt; 5, (B30 + 2), B30+1))</f>
+        <v>43553</v>
+      </c>
+      <c r="D30" s="8" t="str">
+        <f t="shared" ref="D30" si="12">TEXT(B30,"dddd")&amp;" 18:00"&amp;" - "&amp;TEXT(C30,"dddd")&amp;" 22:00"</f>
+        <v>Friday 18:00 - Friday 22:00</v>
+      </c>
+      <c r="E30" s="9">
+        <v>4</v>
+      </c>
+      <c r="F30" s="19">
+        <v>11</v>
+      </c>
+      <c r="G30" s="33"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="21">
+        <f t="shared" si="10"/>
+        <v>43554</v>
+      </c>
+      <c r="C31" s="21">
+        <f>B31</f>
+        <v>43554</v>
+      </c>
+      <c r="D31" s="23" t="str">
+        <f t="shared" ref="D31:D32" si="13">TEXT(B31,"dddd")&amp;" 9:00"&amp;" - "&amp;TEXT(C31,"dddd")&amp;" 18:00"</f>
+        <v>Saturday 9:00 - Saturday 18:00</v>
+      </c>
+      <c r="E31" s="24">
+        <v>9</v>
+      </c>
+      <c r="F31" s="25">
+        <v>15</v>
+      </c>
+      <c r="G31" s="20"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="21">
+        <f t="shared" si="10"/>
+        <v>43555</v>
+      </c>
+      <c r="C32" s="22">
+        <f>B32</f>
+        <v>43555</v>
+      </c>
+      <c r="D32" s="23" t="str">
+        <f t="shared" si="13"/>
+        <v>Sunday 9:00 - Sunday 18:00</v>
+      </c>
+      <c r="E32" s="24">
+        <v>9</v>
+      </c>
+      <c r="F32" s="25">
+        <v>15</v>
+      </c>
+      <c r="G32" s="20"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+    </row>
+    <row r="33" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+    </row>
+    <row r="34" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+    </row>
+    <row r="35" spans="9:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+    </row>
+    <row r="36" spans="9:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+    </row>
+    <row r="37" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+    </row>
+    <row r="38" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+    </row>
+    <row r="39" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+    </row>
+    <row r="40" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+    </row>
+    <row r="41" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+    </row>
+    <row r="42" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
+    </row>
+    <row r="43" spans="9:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
+    </row>
+    <row r="44" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="12"/>
+    </row>
+    <row r="45" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="12"/>
+      <c r="O45" s="12"/>
+      <c r="P45" s="12"/>
+    </row>
+    <row r="46" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="I46" s="18"/>
+      <c r="J46" s="18"/>
+      <c r="L46" s="18"/>
+      <c r="M46" s="18"/>
+      <c r="N46" s="18"/>
+      <c r="O46" s="18"/>
+      <c r="P46" s="18"/>
+    </row>
+    <row r="47" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="I47" s="18"/>
+      <c r="J47" s="18"/>
+      <c r="L47" s="18"/>
+      <c r="M47" s="18"/>
+      <c r="N47" s="18"/>
+      <c r="O47" s="18"/>
+      <c r="P47" s="18"/>
+    </row>
+    <row r="48" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="I48" s="18"/>
+      <c r="J48" s="18"/>
+      <c r="L48" s="18"/>
+      <c r="M48" s="18"/>
+      <c r="N48" s="18"/>
+      <c r="O48" s="18"/>
+      <c r="P48" s="18"/>
+    </row>
+    <row r="49" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="I49" s="18"/>
+      <c r="J49" s="18"/>
+      <c r="L49" s="18"/>
+      <c r="M49" s="18"/>
+      <c r="N49" s="18"/>
+      <c r="O49" s="18"/>
+      <c r="P49" s="18"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
 </file>